--- a/mad5150.xlsx
+++ b/mad5150.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="74XXX" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
   <si>
     <t>Микросхема</t>
   </si>
@@ -347,6 +347,21 @@
   </si>
   <si>
     <t>Итого всего:</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005006033622720.html</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005006902178023.html</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005006927632063.html</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/orders/70000000096640902</t>
+  </si>
+  <si>
+    <t>много</t>
   </si>
 </sst>
 </file>
@@ -688,13 +703,13 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -762,7 +777,7 @@
         <v>109</v>
       </c>
       <c r="C26">
-        <f>C18+'74SXXX'!C27+'74LSXXX'!C37+Разное!C25</f>
+        <f>C18+'74SXXX'!C27+'74LSXXX'!C37+Разное!C34</f>
         <v>159</v>
       </c>
     </row>
@@ -783,14 +798,14 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="94.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="94.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1011,18 +1026,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="94.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="94.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1467,23 +1482,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="94.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="94.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1503,7 +1518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1516,192 +1531,243 @@
       <c r="D2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41256</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>8088</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8087</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>8088</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>8087</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
-        <v>41256</v>
-      </c>
-      <c r="C12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25">
-        <f>SUM(C2:C24)</f>
+      <c r="B34" s="1"/>
+      <c r="C34">
+        <f>SUM(C2:C33)</f>
         <v>59</v>
       </c>
     </row>

--- a/mad5150.xlsx
+++ b/mad5150.xlsx
@@ -1485,7 +1485,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1661,7 +1661,7 @@
         <v>68</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1715,7 +1715,7 @@
         <v>106</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7">

--- a/mad5150.xlsx
+++ b/mad5150.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="116">
   <si>
     <t>Микросхема</t>
   </si>
@@ -298,9 +298,6 @@
     <t>КР531ЛН1</t>
   </si>
   <si>
-    <t>КС531ЛИ1</t>
-  </si>
-  <si>
     <t>КР531ЛА4</t>
   </si>
   <si>
@@ -362,6 +359,12 @@
   </si>
   <si>
     <t>много</t>
+  </si>
+  <si>
+    <t>КР531ЛИ1</t>
+  </si>
+  <si>
+    <t>шт</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -743,10 +746,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -754,18 +757,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <f>SUM(C2:C17)</f>
@@ -774,7 +777,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26">
         <f>C18+'74SXXX'!C27+'74LSXXX'!C37+Разное!C34</f>
@@ -792,10 +795,542 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="94.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="J22">
+        <f>5*K22</f>
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>115</v>
+      </c>
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <f>J22*O22</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="J23">
+        <f t="shared" ref="J23:J32" si="0">5*K23</f>
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>115</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23:P32" si="1">J23*O23</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>115</v>
+      </c>
+      <c r="O24">
+        <v>20</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>115</v>
+      </c>
+      <c r="O25">
+        <v>20</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>115</v>
+      </c>
+      <c r="O26">
+        <v>20</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27">
+        <f>SUM(C2:C26)</f>
+        <v>18</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>92</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27" t="s">
+        <v>115</v>
+      </c>
+      <c r="O27">
+        <v>20</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>115</v>
+      </c>
+      <c r="O28">
+        <v>20</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>115</v>
+      </c>
+      <c r="O29">
+        <v>20</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30" t="s">
+        <v>99</v>
+      </c>
+      <c r="M30">
+        <v>15</v>
+      </c>
+      <c r="N30" t="s">
+        <v>115</v>
+      </c>
+      <c r="O30">
+        <v>20</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31">
+        <v>15</v>
+      </c>
+      <c r="N31" t="s">
+        <v>115</v>
+      </c>
+      <c r="O31">
+        <v>20</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M32">
+        <v>15</v>
+      </c>
+      <c r="N32" t="s">
+        <v>115</v>
+      </c>
+      <c r="O32">
+        <v>20</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="12:16">
+      <c r="L33" t="s">
+        <v>103</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="12:16">
+      <c r="L34" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>115</v>
+      </c>
+      <c r="P34">
+        <f>SUM(P22:P32)</f>
+        <v>1800</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F12">
+    <sortCondition ref="D2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -830,47 +1365,44 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -878,246 +1410,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27">
-        <f>SUM(C2:C26)</f>
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:F12">
-    <sortCondition ref="D2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="94.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1130,7 +1433,7 @@
         <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1175,7 +1478,7 @@
         <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1262,7 +1565,7 @@
         <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1463,7 +1766,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37">
@@ -1557,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1681,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1706,13 +2009,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>105</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>106</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1735,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1755,15 +2058,15 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
         <v>110</v>
-      </c>
-      <c r="G16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34">

--- a/mad5150.xlsx
+++ b/mad5150.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="74XXX" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1877,7 +1877,7 @@
         <v>65</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2035,7 +2035,7 @@
         <v>69</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>111</v>

--- a/mad5150.xlsx
+++ b/mad5150.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="74XXX" sheetId="1" r:id="rId1"/>
@@ -381,12 +381,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -401,11 +407,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -797,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -938,7 +945,7 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" t="s">
@@ -955,7 +962,7 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F9" t="s">
@@ -1329,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>

--- a/mad5150.xlsx
+++ b/mad5150.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="74XXX" sheetId="1" r:id="rId1"/>
     <sheet name="74SXXX" sheetId="2" r:id="rId2"/>
     <sheet name="74LSXXX" sheetId="7" r:id="rId3"/>
     <sheet name="Разное" sheetId="8" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="133">
   <si>
     <t>Микросхема</t>
   </si>
@@ -365,6 +366,57 @@
   </si>
   <si>
     <t>шт</t>
+  </si>
+  <si>
+    <t>Нет:</t>
+  </si>
+  <si>
+    <t>LS322</t>
+  </si>
+  <si>
+    <t>LS670</t>
+  </si>
+  <si>
+    <t>LS243</t>
+  </si>
+  <si>
+    <t>S280</t>
+  </si>
+  <si>
+    <t>LS27</t>
+  </si>
+  <si>
+    <t>LS158</t>
+  </si>
+  <si>
+    <t>LS20</t>
+  </si>
+  <si>
+    <t>LS10</t>
+  </si>
+  <si>
+    <t>LS374</t>
+  </si>
+  <si>
+    <t>чипкин</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>оригинал</t>
+  </si>
+  <si>
+    <t>совок</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>оригинал?</t>
+  </si>
+  <si>
+    <t>авито</t>
   </si>
 </sst>
 </file>
@@ -713,13 +765,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -804,19 +856,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="94.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="94.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1337,17 +1389,17 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="94.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="94.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1794,18 +1846,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="94.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="94.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2088,4 +2140,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>